--- a/resources/entity-sample-data/4. projects.xlsx
+++ b/resources/entity-sample-data/4. projects.xlsx
@@ -25,7 +25,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Statement 1</t>
+    <t>statement-01</t>
   </si>
   <si>
     <t>Project 1</t>
@@ -40,13 +40,13 @@
     <t>Description of project 2</t>
   </si>
   <si>
-    <t>Statement 6</t>
-  </si>
-  <si>
     <t>Project 3</t>
   </si>
   <si>
     <t>Description of project 3</t>
+  </si>
+  <si>
+    <t>statement-02</t>
   </si>
   <si>
     <t>Project 4</t>
@@ -1427,9 +1427,7 @@
       <c r="A2" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="5">
-        <v>5</v>
-      </c>
+      <c r="B2" s="5"/>
       <c r="C2" t="s" s="6">
         <v>5</v>
       </c>
@@ -1445,9 +1443,7 @@
       <c r="A3" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="5">
-        <v>7</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="C3" t="s" s="10">
         <v>7</v>
       </c>
@@ -1461,16 +1457,14 @@
     </row>
     <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="D4" t="s" s="11">
         <v>10</v>
-      </c>
-      <c r="C4" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="11">
-        <v>11</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -1479,11 +1473,9 @@
     </row>
     <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B5" s="6"/>
       <c r="C5" t="s" s="11">
         <v>12</v>
       </c>
@@ -1497,11 +1489,9 @@
     </row>
     <row r="6" ht="32.05" customHeight="1">
       <c r="A6" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="10">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B6" s="10"/>
       <c r="C6" t="s" s="11">
         <v>14</v>
       </c>
